--- a/Modelo Planilha de Sondagens.xlsx
+++ b/Modelo Planilha de Sondagens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msj\Documents\Aplicacoes\GEOCOBA\01.pyToScriptCAD\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msj\Documents\GitHub\pyToScriptCAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0E1762-5E2A-4F83-8D35-1631BC0C68E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A3D746-AC6B-4EFA-A28F-A7E0DAC15F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="29040" windowHeight="15720" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SM-XXX.YY" sheetId="87" r:id="rId1"/>
@@ -741,7 +741,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Dados Sondagem</t>
   </si>
@@ -780,9 +780,6 @@
   </si>
   <si>
     <t>Cota de Boca (m)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>C</t>
@@ -879,6 +876,15 @@
   </si>
   <si>
     <t>SM-XXX.YY</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>F2</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1497,7 @@
   <dimension ref="A1:Z179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1527,15 +1533,15 @@
       <c r="B1" s="42"/>
       <c r="C1" s="22"/>
       <c r="D1" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="44"/>
       <c r="F1" s="22"/>
       <c r="G1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>1</v>
@@ -1545,10 +1551,10 @@
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>1</v>
@@ -1567,23 +1573,23 @@
         <v>2</v>
       </c>
       <c r="T1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="26" t="s">
-        <v>15</v>
-      </c>
       <c r="V1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1593,29 +1599,51 @@
       <c r="B2" s="36"/>
       <c r="C2" s="9"/>
       <c r="D2" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="13">
         <v>3.5</v>
       </c>
       <c r="F2" s="9"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="G2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
       <c r="J2" s="12"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="2"/>
+      <c r="L2" s="29">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="P2" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>100</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
+        <v>2</v>
+      </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="4"/>
@@ -1625,11 +1653,11 @@
         <v>9</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="13">
         <v>8</v>
@@ -1661,11 +1689,11 @@
         <v>7</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="13">
         <v>0.2</v>
@@ -1694,12 +1722,12 @@
     </row>
     <row r="5" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="9"/>
       <c r="D5" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="13">
         <v>0.7</v>
@@ -1728,12 +1756,12 @@
     </row>
     <row r="6" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="9"/>
       <c r="D6" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="13">
         <v>0.3</v>
@@ -1764,10 +1792,12 @@
       <c r="A7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="39">
+        <v>1</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="13">
         <v>0.4</v>
@@ -1796,12 +1826,14 @@
     </row>
     <row r="8" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="39">
+        <v>2</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="13">
         <v>0.2</v>
@@ -1832,10 +1864,12 @@
       <c r="A9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="39">
+        <v>1</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="13">
         <v>0.6</v>
@@ -1866,12 +1900,12 @@
       <c r="A10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>13</v>
+      <c r="B10" s="39">
+        <v>1</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="13">
         <v>0.6</v>
@@ -1900,12 +1934,12 @@
     </row>
     <row r="11" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="9"/>
       <c r="D11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="13">
         <v>0.9</v>
@@ -1934,12 +1968,12 @@
     </row>
     <row r="12" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="9"/>
       <c r="D12" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="13">
         <v>0.8</v>
@@ -1971,7 +2005,7 @@
       <c r="B13" s="39"/>
       <c r="C13" s="9"/>
       <c r="D13" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="13">
         <v>0.8</v>
@@ -2003,7 +2037,7 @@
       <c r="B14" s="39"/>
       <c r="C14" s="9"/>
       <c r="D14" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="13">
         <v>3</v>
@@ -2035,7 +2069,7 @@
       <c r="B15" s="40"/>
       <c r="C15" s="9"/>
       <c r="D15" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="13">
         <v>1</v>
@@ -2067,7 +2101,7 @@
       <c r="B16" s="40"/>
       <c r="C16" s="9"/>
       <c r="D16" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="13">
         <v>1</v>
@@ -2099,7 +2133,7 @@
       <c r="B17" s="40"/>
       <c r="C17" s="9"/>
       <c r="D17" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="13">
         <v>0.5</v>
@@ -2131,7 +2165,7 @@
       <c r="B18" s="39"/>
       <c r="C18" s="9"/>
       <c r="D18" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="13">
         <v>3</v>
